--- a/data/trans_dic/CONS_DIG-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,11</t>
+          <t>3,98; 7,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,64</t>
+          <t>4,82; 9,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,24</t>
+          <t>1,6; 4,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,73</t>
+          <t>2,83; 6,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,18</t>
+          <t>2,53; 6,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,74</t>
+          <t>2,4; 5,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,17</t>
+          <t>3,86; 6,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,16</t>
+          <t>4,17; 7,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,48</t>
+          <t>2,29; 4,59</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,7</t>
+          <t>4,12; 8,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,26</t>
+          <t>3,61; 8,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,04</t>
+          <t>2,7; 7,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,71</t>
+          <t>3,55; 6,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,01</t>
+          <t>3,21; 7,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,84</t>
+          <t>1,51; 5,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 5,21</t>
+          <t>4,15; 6,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,85</t>
+          <t>3,91; 7,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,87</t>
+          <t>2,36; 5,11</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,37</t>
+          <t>9,09; 13,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 10,28</t>
+          <t>0,61; 8,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,71; 12,63</t>
+          <t>4,07; 9,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 10,35</t>
+          <t>6,75; 12,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,92; 15,1</t>
+          <t>6,0; 14,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 12,18</t>
+          <t>2,03; 7,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,46</t>
+          <t>9,11; 12,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,69</t>
+          <t>1,47; 8,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 11,73</t>
+          <t>4,0; 8,23</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,99</t>
+          <t>9,03; 13,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,98</t>
+          <t>3,32; 6,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 12,51</t>
+          <t>3,63; 7,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,82</t>
+          <t>6,73; 10,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,87</t>
+          <t>1,49; 7,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 10,02</t>
+          <t>4,23; 8,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,37</t>
+          <t>8,33; 11,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,58</t>
+          <t>2,59; 6,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,57</t>
+          <t>4,39; 7,52</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,12</t>
+          <t>6,61; 13,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 9,81</t>
+          <t>2,12; 15,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,31</t>
+          <t>1,9; 6,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 10,73</t>
+          <t>10,68; 16,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,48; 14,05</t>
+          <t>4,03; 9,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,24; 14,9</t>
+          <t>3,91; 9,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,11</t>
+          <t>9,73; 13,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,92; 11,44</t>
+          <t>4,42; 9,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,46; 13,0</t>
+          <t>3,27; 7,01</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>9,56%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>11,56%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>9,83%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,68%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8,1%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,91</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,8</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0; 11,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 3,28</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 2,35</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>10,85; 15,93</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 9,28</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>0; 9,99</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>8,27; 11,19</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>9,41; 13,65</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>8,03; 12,02</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 7,3</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0; 5,61</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,51; 9,16</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 9,75</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,12</t>
+          <t>7,45; 9,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,56; 7,21</t>
+          <t>3,17; 6,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 8,85</t>
+          <t>3,62; 5,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,28</t>
+          <t>7,84; 9,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,33; 8,99</t>
+          <t>4,24; 6,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 9,38</t>
+          <t>3,73; 5,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,42; 5,74</t>
+          <t>7,91; 9,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,8; 7,89</t>
+          <t>4,28; 6,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,75; 8,86</t>
+          <t>3,87; 5,18</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el estómago</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7969</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26158</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7721</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5972</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12323</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10753</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13941</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38481</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18474</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5798; 10542</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17670; 35530</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4726; 12141</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4037; 8575</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7576; 18104</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6638; 16459</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11132; 17352</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27763; 49816</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13106; 26244</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4704</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17461</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9101</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5409</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13250</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6533</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10112</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30711</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15634</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3343; 6913</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11712; 27027</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5283; 14171</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3872; 7543</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8344; 19907</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3505; 11689</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7889; 13030</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22822; 41284</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10103; 21869</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18470</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16331</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11614</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5872</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9652</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3708</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>24342</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25983</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15322</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14892; 22465</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2905; 39047</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7363; 18062</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4263; 7949</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5858; 14404</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1678; 6532</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20672; 29298</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8436; 50445</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10534; 21691</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18635</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25297</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16937</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15039</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>27478</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19425</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33674</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>52776</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>36361</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>15358; 22642</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17774; 35174</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11206; 24549</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11917; 18598</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9503; 45436</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13374; 26841</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28934; 39379</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30320; 71034</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>27395; 46953</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6937</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11523</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5539</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17292</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>29584</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9344</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24229</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41107</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14883</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5079; 10402</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4482; 32499</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2856; 9540</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14196; 21299</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17078; 39596</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6067; 14370</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20420; 28696</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>28072; 62007</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>9971; 21391</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1531</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>15600</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>36411</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>16078</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>37943</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1768</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6339</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1106</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>12829; 18845</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>27600; 45447</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1142</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>13127; 19660</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>29105; 47963</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1166</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>57193</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>98301</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>50912</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>65185</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>128699</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>49764</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>122377</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>227000</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>100676</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>50877; 63352</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>65966; 125530</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>41325; 61473</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>58316; 72768</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>93675; 153169</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>40021; 61121</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>112838; 131859</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>183395; 269072</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>85608; 114755</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_DIG-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Clase-trans_dic.xlsx
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1106</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 1142</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 1166</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/CONS_DIG-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago</t>
+          <t>Consumo de medicamentos para el estómago (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago</t>
+          <t>Consumo de medicamentos para el estómago (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_DIG-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Clase-trans_dic.xlsx
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,23</t>
+          <t>4,04; 7,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,69</t>
+          <t>4,81; 9,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,0</t>
+          <t>2,6; 5,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,06</t>
+          <t>2,68; 6,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,01</t>
+          <t>3,65; 5,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,48</t>
+          <t>4,34; 7,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,52</t>
+          <t>4,56; 9,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,34</t>
+          <t>3,3; 7,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,91</t>
+          <t>3,35; 7,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,65</t>
+          <t>3,28; 7,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,85</t>
+          <t>4,3; 7,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,07</t>
+          <t>3,84; 7,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,71</t>
+          <t>8,15; 12,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 8,21</t>
+          <t>0,76; 8,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,59</t>
+          <t>7,56; 14,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 14,76</t>
+          <t>6,11; 14,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 12,91</t>
+          <t>8,6; 12,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 8,8</t>
+          <t>1,39; 8,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,03; 13,31</t>
+          <t>8,5; 12,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,56</t>
+          <t>3,24; 6,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,5</t>
+          <t>6,05; 9,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,14</t>
+          <t>1,61; 7,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 11,34</t>
+          <t>7,68; 10,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,06</t>
+          <t>2,67; 5,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 13,54</t>
+          <t>5,44; 10,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 15,39</t>
+          <t>1,9; 13,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,68; 16,02</t>
+          <t>10,15; 14,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,34</t>
+          <t>4,16; 9,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,73; 13,68</t>
+          <t>8,86; 12,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,76</t>
+          <t>4,16; 9,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,91</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,8</t>
+          <t>0,0; 3,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,85; 15,93</t>
+          <t>9,92; 14,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,28</t>
+          <t>5,81; 9,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,02</t>
+          <t>6,6; 10,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,3</t>
+          <t>4,6; 7,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,28</t>
+          <t>6,77; 8,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,03</t>
+          <t>3,22; 6,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,84; 9,79</t>
+          <t>7,25; 8,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,94</t>
+          <t>4,2; 6,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,91; 9,24</t>
+          <t>7,3; 8,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 6,28</t>
+          <t>4,16; 6,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7969</t>
+          <t>8901</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5972</t>
+          <t>6480</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13941</t>
+          <t>15381</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5798; 10542</t>
+          <t>6573; 11841</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17670; 35530</t>
+          <t>17636; 36524</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4037; 8575</t>
+          <t>4385; 9033</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7576; 18104</t>
+          <t>8023; 18028</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11132; 17352</t>
+          <t>12109; 19259</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27763; 49816</t>
+          <t>28888; 49905</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4704</t>
+          <t>5841</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5409</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10112</t>
+          <t>12021</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3343; 6913</t>
+          <t>4120; 8203</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11712; 27027</t>
+          <t>10708; 25307</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3872; 7543</t>
+          <t>4106; 8592</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8344; 19907</t>
+          <t>8530; 20764</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7889; 13030</t>
+          <t>9162; 15019</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22822; 41284</t>
+          <t>22403; 41160</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18470</t>
+          <t>15416</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5872</t>
+          <t>6597</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24342</t>
+          <t>22013</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14892; 22465</t>
+          <t>12543; 18616</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2905; 39047</t>
+          <t>3612; 38962</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4263; 7949</t>
+          <t>4660; 8841</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5858; 14404</t>
+          <t>5959; 14488</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20672; 29298</t>
+          <t>18529; 25992</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8436; 50445</t>
+          <t>7942; 50602</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18635</t>
+          <t>17435</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15039</t>
+          <t>13978</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33674</t>
+          <t>31413</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15358; 22642</t>
+          <t>14434; 21351</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17774; 35174</t>
+          <t>17346; 35940</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11917; 18598</t>
+          <t>11016; 17273</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9503; 45436</t>
+          <t>10279; 45096</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28934; 39379</t>
+          <t>27013; 35978</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30320; 71034</t>
+          <t>31353; 70073</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6937</t>
+          <t>5733</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17292</t>
+          <t>15513</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24229</t>
+          <t>21246</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5079; 10402</t>
+          <t>4048; 7927</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4482; 32499</t>
+          <t>4022; 28969</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14196; 21299</t>
+          <t>12729; 18763</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17078; 39596</t>
+          <t>17646; 39629</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>20420; 28696</t>
+          <t>17701; 25142</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28072; 62007</t>
+          <t>26415; 59812</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>15600</t>
+          <t>14693</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>16078</t>
+          <t>15040</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 1768</t>
+          <t>0; 1235</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 6339</t>
+          <t>0; 5560</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12829; 18845</t>
+          <t>12166; 18352</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27600; 45447</t>
+          <t>28447; 46830</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13127; 19660</t>
+          <t>11769; 18192</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29105; 47963</t>
+          <t>30186; 48133</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>57193</t>
+          <t>53673</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>65185</t>
+          <t>63440</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>122377</t>
+          <t>117113</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>50877; 63352</t>
+          <t>47821; 59896</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>65966; 125530</t>
+          <t>67073; 127593</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>58316; 72768</t>
+          <t>56745; 70403</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>93675; 153169</t>
+          <t>92753; 153428</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>112838; 131859</t>
+          <t>108721; 125916</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>183395; 269072</t>
+          <t>178176; 264111</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_DIG-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>5,47%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,13%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>3,84%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,12%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,89%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>4,64%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,78%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4,69; 9,49</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 4,11</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>4,04; 7,27</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,81; 9,96</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 4,11</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>2,92; 6,46</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 5,95</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>2,6; 5,36</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 6,03</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 5,95</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>4,38; 7,42</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 4,59</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>3,65; 5,81</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 7,5</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 4,59</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>6,46%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,78%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>5,04%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,09%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>5,64%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,26; 7,75</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 7,24</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>4,56; 9,07</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 7,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,7; 7,24</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3,1; 7,48</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 5,04</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>3,35; 7,0</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 7,98</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 5,04</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>3,7; 6,79</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 5,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>4,3; 7,05</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,84; 7,05</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 5,11</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>10,02%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>10,17%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>10,71%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,89%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,48%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>10,21%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,53%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>3,84; 9,79</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 9,99</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>8,15; 12,1</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 8,2</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,07; 9,99</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>6,01; 14,91</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 7,89</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7,56; 14,35</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>6,11; 14,85</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 7,89</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>5,52; 10,39</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 8,23</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>8,6; 12,06</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 8,83</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>4,0; 8,23</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>10,27%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,49%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,67%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,32%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,15%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>8,93%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,5%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,38; 6,81</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 7,96</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>8,5; 12,58</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,24; 6,7</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 7,96</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,79; 8,28</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 8,49</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>6,05; 9,48</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 7,08</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 8,49</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>4,38; 6,79</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4,39; 7,52</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>7,68; 10,22</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 5,97</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>4,39; 7,52</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>7,7%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,46%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,69%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>12,37%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6,03%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>10,63%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,47%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,5; 7,49</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 6,35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>5,44; 10,65</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 13,71</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 6,35</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>6,46; 10,48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 9,27</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>10,15; 14,96</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>4,16; 9,35</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,91; 9,27</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>5,0; 8,59</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 7,01</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>8,86; 12,58</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,16; 9,42</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3,27; 7,01</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,62%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>11,98%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>8,44%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,78%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,17</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,22</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,33</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 9,52</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>9,92; 14,97</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,81; 9,56</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 7,46</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>6,6; 10,21</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 7,33</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>7,59%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,73%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>8,1%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>4,63%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>7,86%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,12; 6,02</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 5,39</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>6,77; 8,47</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 6,13</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3,62; 5,39</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>5,94; 7,67</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 5,69</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>7,25; 8,99</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 6,95</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 5,69</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>5,3; 6,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,87; 5,18</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>7,3; 8,45</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,16; 6,16</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>3,87; 5,18</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>81</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>27155</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7721</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>8901</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>26158</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7721</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>14402</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10753</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>6480</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>12323</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10753</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>41557</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18474</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>15381</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>38481</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>18474</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>18550; 37526</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4726; 12141</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>6573; 11841</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>17636; 36524</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4726; 12141</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>9557; 21155</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6638; 16459</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>4385; 9033</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8023; 18028</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6638; 16459</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>31637; 53665</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13106; 26244</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>12109; 19259</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>28888; 49905</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>13106; 26244</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>67</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>18224</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9101</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>5841</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17461</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9101</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>13724</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6533</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>6180</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>13250</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6533</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>31948</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15634</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>12021</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>30711</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>15634</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>11223; 26688</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5283; 14171</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>4120; 8203</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>10708; 25307</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5283; 14171</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>8882; 21458</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3505; 11689</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>4106; 8592</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>8530; 20764</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3505; 11689</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>23377; 42889</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10103; 21869</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>9162; 15019</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>22403; 41160</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>10103; 21869</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>135</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>17096</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11614</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>15416</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>16331</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>11614</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>11333</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3708</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>6597</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>9652</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3708</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>28429</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15322</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>22013</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>25983</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>15322</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9995; 25512</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7363; 18062</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>12543; 18616</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3612; 38962</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7363; 18062</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>6704; 16623</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1678; 6532</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>4660; 8841</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5959; 14488</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1678; 6532</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>20554; 38650</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10534; 21691</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>18529; 25992</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7942; 50602</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>10534; 21691</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>108</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>194</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>29222</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16937</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>17435</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>25297</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>16937</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>31028</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19425</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>13978</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>27478</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>19425</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>60250</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36361</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>31413</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>52776</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>36361</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>20589; 41564</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11206; 24549</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>14434; 21351</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>17346; 35940</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>11206; 24549</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>23490; 40605</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13374; 26841</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>11016; 17273</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>10279; 45096</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>13374; 26841</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>48187; 74745</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>27395; 46953</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>27013; 35978</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>31353; 70073</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>27395; 46953</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>132</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>8968</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5539</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>5733</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>11523</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>5539</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>33796</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9344</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>15513</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>29584</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>9344</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>42763</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14883</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>21246</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>41107</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>14883</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>3793; 18983</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2856; 9540</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>4048; 7927</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4022; 28969</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2856; 9540</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>26348; 42767</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6067; 14370</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>12729; 18763</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>17646; 39629</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>6067; 14370</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>33056; 56842</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9971; 21391</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>17701; 25142</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>26415; 59812</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>9971; 21391</t>
         </is>
       </c>
     </row>
@@ -2369,42 +2369,42 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>95</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1496</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>347</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1531</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>40662</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>14693</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>36411</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>42158</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>15040</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>37943</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>0; 5381</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>0; 1235</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>0; 5560</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>31949; 52052</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>12166; 18352</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>28447; 46830</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>33415; 53439</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr">
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>11769; 18192</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>30186; 48133</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>381</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>704</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>203</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>102161</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>50912</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>53673</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>98301</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>50912</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>144944</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>49764</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>63440</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>128699</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>49764</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>247106</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>100676</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>117113</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>227000</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>100676</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>83722; 122392</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>41325; 61473</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>47821; 59896</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>67073; 127593</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>41325; 61473</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>128982; 166550</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>40021; 61121</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>56745; 70403</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>92753; 153428</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>40021; 61121</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>222796; 276322</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>85608; 114755</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>108721; 125916</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>178176; 264111</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>85608; 114755</t>
         </is>
       </c>
     </row>
